--- a/medicine/Sexualité et sexologie/69_(position_sexuelle)/69_(position_sexuelle).xlsx
+++ b/medicine/Sexualité et sexologie/69_(position_sexuelle)/69_(position_sexuelle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 69 est une position sexuelle dans laquelle les deux partenaires stimulent avec la bouche le sexe de l’autre, dans le but de pratiquer mutuellement le coït buccal[1],[2],[3]. Les participants sont ainsi mutuellement à l'envers, tête-bêche[3],[4]. Cette position peut impliquer deux personnes de n'importe quel sexe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 69 est une position sexuelle dans laquelle les deux partenaires stimulent avec la bouche le sexe de l’autre, dans le but de pratiquer mutuellement le coït buccal. Les participants sont ainsi mutuellement à l'envers, tête-bêche,. Cette position peut impliquer deux personnes de n'importe quel sexe.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Origine de l'expression</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme en tant que représentation stylisée apparaît pour la première fois dans le « Catéchisme libertin à l’usage des filles de joie et des jeunes demoiselles qui se destinent à embrasser cette profession », attribué par son auteur  « la Belle Liégeoise » Anne-Josèphe Théroigne de Méricourt et publié en 1791.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 69 n'est pas toujours considéré comme une position sexuelle au sens strict dans la mesure où il ne permet pas la pénétration : certains parlent alors de position intime. Dans une relation hétérosexuelle, il y a simultanément un cunnilingus et une fellation. Un couple peut rechercher la stimulation réciproque, et la simultanéité, ainsi un seul partenaire peut rechercher son orgasme ou les deux, et ces orgasmes peuvent être simultanés ou consécutifs, selon l'inspiration du couple. De même, les partenaires peuvent considérer le 69 comme des préliminaires seulement, et au contraire conduire à l'orgasme de l'un ou des deux partenaires.
 </t>
@@ -573,7 +589,9 @@
           <t>Autres dénominations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Kama Sutra emploie le terme congrès du corbeau
 On utilise parfois le nom du symbole chinois du Yin et du Yang
@@ -605,7 +623,9 @@
           <t>Image attribuée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nombre 69 en lui-même est une représentation figurative de cette position. En effet, si les boucles de ces deux chiffres sont considérées comme étant la tête des partenaires, le nombre 69 représente bien deux partenaires face-à-face, ayant chacun la tête au niveau du sexe de l'autre. Contrairement à ce que certains pensent, la position 69 n'est pas la 69e position décrite dans le Kamasutra. Par opposition, on nomme parfois « position 96 » l'absence d'activité sexuelle de deux personnes dans le même lit. L'éloignement entre des personnes qui se connaissent uniquement à travers Internet a de même donné lieu à la représentation de leur sexualité par le symbole %.
 Cette pratique est décrite dans le passage du Kamasutra consacré au congrès buccal comme « le congrès du corbeau » :
@@ -640,19 +660,94 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Peinture, dessin, gravure
+          <t>Peinture, dessin, gravure</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Détail d'un haut-relief du temple de Lakshmana à Khajurâho.
 			Gravure de Félicien Rops (1865) pour Le Diable au corps de Nerciat.
 			Amies de pension, illustration vers 1890.
 			Aquarelle de Gerda Wegener, Les Délassements d'Éros (1925).
 			Représentation du 69 par Hokusai.
 			Représentation d'un 69 dans le Kamasutra.
-Chansons
-69 année érotique, chanson de Serge Gainsbourg
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>69_(position_sexuelle)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/69_(position_sexuelle)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Représentations culturelles</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chansons</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>69 année érotique, chanson de Serge Gainsbourg
 Toi mon toit, chanson d'Elli Medeiros
-"34+35", chanson d'Ariana Grande
-Cinéma
-1974 : Flossie, entre Marie Forså et Anita Ericsson (sv)
+"34+35", chanson d'Ariana Grande</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>69_(position_sexuelle)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/69_(position_sexuelle)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Représentations culturelles</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1974 : Flossie, entre Marie Forså et Anita Ericsson (sv)
 2005 : A History of Violence, entre Viggo Mortensen et Maria Bello
 2013 : La Vie d'Adèle, entre Léa Seydoux et Adèle Exarchopoulos
 2016 : Howaito rirî, entre Rin Asuka et Kaori Yamaguchi</t>
